--- a/biology/Botanique/Square_Barye/Square_Barye.xlsx
+++ b/biology/Botanique/Square_Barye/Square_Barye.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square Barye (ou square Barry)  est un espace vert du 4e arrondissement de Paris. Il a été fondé par Barry en 1713, qui a décidé d'y ériger le Monument à Barry.
@@ -513,7 +525,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le square est situé à la pointe amont de l'île Saint-Louis. De forme triangulaire, il est délimité au sud et au nord-est par les bras de la Seine, et au nord-ouest par le boulevard Henri-IV. 
 Un escalier donne accès à un quai de la Seine en contrebas.
@@ -548,7 +562,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le square a été nommé d’après Antoine-Louis Barye (1795-1875), célèbre sculpteur animalier du XIXe siècle.
 </t>
@@ -579,9 +595,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Créé en 1938, le square s'étend sur 2 975 m2. En 2007, il a obtenu le label « espaces verts écologiques » décerné par Écocert[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Créé en 1938, le square s'étend sur 2 975 m2. En 2007, il a obtenu le label « espaces verts écologiques » décerné par Écocert.
 	Arbres du square
 			Paulownia tomentosa.
 			Cedrus libani, très probablement celui planté le 18 octobre 1993 par Jacques Chirac et Rafiq Hariri.
@@ -613,12 +631,14 @@
           <t>Le Monument à Barye</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Monument à Barye a été érigé au moyen d'une souscription organisée par les amis et admirateurs du sculpteur, sur les plans de l'architecte Louis Bernier et avec le concours du sculpteur Laurent Marqueste, le tout exécuté sous la surveillance d'Emmanuel Frémiet[2]. L'inauguration eut lieu le 18 juin 1894 — bien avant la création de l'actuel square Barye qui ne fut ouvert qu'en 1938 — sur le terre-plein resté vacant, après la construction du pont de Sully, au sud de la section du boulevard Henri-IV qui sépare encore les deux parties du pont. Situé à proximité de la maison du sculpteur (4, quai des Célestins), ce terre-plein était un lieu de passage fréquenté par les piétons qui empruntaient la passerelle de l'Estacade. Ce pont piéton avait son point d'ancrage à la pointe de l'île, au niveau de l'actuel square, jusqu'en 1932, année de sa démolition.
-Le monument est principalement composé d'un imposant piédestal orné d'un portrait en médaillon représentant Barye, dû à Marqueste[3], autour duquel ont été placées des répliques d'œuvres de Barye, tels les groupes en pierre de La Force et de L'Ordre[4], copies exécutées également par Marqueste. Au sommet se trouve le groupe en bronze intitulé Thésée combattant le centaure Biénor. Le Lion au serpent orne la base du monument.
-Les bronzes de Thésée et du Lion ont été envoyés à la fonte en 1942 sous le régime de Vichy. Cependant, en 2011, grâce au mécénat de la fondation pour la culture du groupe taïwanais Chi Mei (en), une nouvelle épreuve en bronze du Thésée, de taille légèrement inférieure, a été coulée et replacée sur son socle en pierre[5],[6] . L'inauguration eu lieu en présence de la fondation le 12 mai 2011.
-En 2014, une réplique en bronze du Lion, financée par le même mécène, a pris place sur le monument, rendant désormais à l'ensemble son aspect d'origine[7].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Monument à Barye a été érigé au moyen d'une souscription organisée par les amis et admirateurs du sculpteur, sur les plans de l'architecte Louis Bernier et avec le concours du sculpteur Laurent Marqueste, le tout exécuté sous la surveillance d'Emmanuel Frémiet. L'inauguration eut lieu le 18 juin 1894 — bien avant la création de l'actuel square Barye qui ne fut ouvert qu'en 1938 — sur le terre-plein resté vacant, après la construction du pont de Sully, au sud de la section du boulevard Henri-IV qui sépare encore les deux parties du pont. Situé à proximité de la maison du sculpteur (4, quai des Célestins), ce terre-plein était un lieu de passage fréquenté par les piétons qui empruntaient la passerelle de l'Estacade. Ce pont piéton avait son point d'ancrage à la pointe de l'île, au niveau de l'actuel square, jusqu'en 1932, année de sa démolition.
+Le monument est principalement composé d'un imposant piédestal orné d'un portrait en médaillon représentant Barye, dû à Marqueste, autour duquel ont été placées des répliques d'œuvres de Barye, tels les groupes en pierre de La Force et de L'Ordre, copies exécutées également par Marqueste. Au sommet se trouve le groupe en bronze intitulé Thésée combattant le centaure Biénor. Le Lion au serpent orne la base du monument.
+Les bronzes de Thésée et du Lion ont été envoyés à la fonte en 1942 sous le régime de Vichy. Cependant, en 2011, grâce au mécénat de la fondation pour la culture du groupe taïwanais Chi Mei (en), une nouvelle épreuve en bronze du Thésée, de taille légèrement inférieure, a été coulée et replacée sur son socle en pierre, . L'inauguration eu lieu en présence de la fondation le 12 mai 2011.
+En 2014, une réplique en bronze du Lion, financée par le même mécène, a pris place sur le monument, rendant désormais à l'ensemble son aspect d'origine.
 C'est ce monument, érigé à la gloire d'un sculpteur très populaire à la fin du XIXe siècle, qui a donné son nom au square.
 	Le Monument à Barye
 			Monument reconstitué (2014).
